--- a/pa-temp-fix-system.com/php/shell/sp/adgroup/excel/8-19号错误的自动化广告_auto广告.xlsx
+++ b/pa-temp-fix-system.com/php/shell/sp/adgroup/excel/8-19号错误的自动化广告_auto广告.xlsx
@@ -2124,7 +2124,7 @@
   <dimension ref="A1:P457"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
@@ -2237,7 +2237,7 @@
         <v>0.4</v>
       </c>
       <c r="P2" t="b">
-        <f t="shared" ref="P2:P7" si="0">OR(ISNUMBER(SEARCH("auto",$L2)),ISNUMBER(SEARCH("自动",$L2)))</f>
+        <f>OR(ISNUMBER(SEARCH("auto",$L2)),ISNUMBER(SEARCH("自动",$L2)))</f>
         <v>1</v>
       </c>
     </row>
@@ -2282,7 +2282,7 @@
         <v>0.4</v>
       </c>
       <c r="P3" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="P2:P49" si="0">OR(ISNUMBER(SEARCH("auto",$L3)),ISNUMBER(SEARCH("自动",$L3)))</f>
         <v>1</v>
       </c>
     </row>
@@ -2513,7 +2513,7 @@
         <v>0.35</v>
       </c>
       <c r="P8" t="b">
-        <f>OR(ISNUMBER(SEARCH("auto",$L8)),ISNUMBER(SEARCH("自动",$L8)))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -2564,7 +2564,7 @@
         <v>0.35</v>
       </c>
       <c r="P9" t="b">
-        <f>OR(ISNUMBER(SEARCH("auto",$L9)),ISNUMBER(SEARCH("自动",$L9)))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -2615,7 +2615,7 @@
         <v>0.35</v>
       </c>
       <c r="P10" t="b">
-        <f>OR(ISNUMBER(SEARCH("auto",$L10)),ISNUMBER(SEARCH("自动",$L10)))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -2666,7 +2666,7 @@
         <v>0.35</v>
       </c>
       <c r="P11" t="b">
-        <f>OR(ISNUMBER(SEARCH("auto",$L11)),ISNUMBER(SEARCH("自动",$L11)))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -2717,7 +2717,7 @@
         <v>0.35</v>
       </c>
       <c r="P12" t="b">
-        <f>OR(ISNUMBER(SEARCH("auto",$L12)),ISNUMBER(SEARCH("自动",$L12)))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -2768,7 +2768,7 @@
         <v>0.35</v>
       </c>
       <c r="P13" t="b">
-        <f>OR(ISNUMBER(SEARCH("auto",$L13)),ISNUMBER(SEARCH("自动",$L13)))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -2819,7 +2819,7 @@
         <v>0.35</v>
       </c>
       <c r="P14" t="b">
-        <f>OR(ISNUMBER(SEARCH("auto",$L14)),ISNUMBER(SEARCH("自动",$L14)))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -2870,7 +2870,7 @@
         <v>0.35</v>
       </c>
       <c r="P15" t="b">
-        <f>OR(ISNUMBER(SEARCH("auto",$L15)),ISNUMBER(SEARCH("自动",$L15)))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -2921,7 +2921,7 @@
         <v>0.35</v>
       </c>
       <c r="P16" t="b">
-        <f>OR(ISNUMBER(SEARCH("auto",$L16)),ISNUMBER(SEARCH("自动",$L16)))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -2972,7 +2972,7 @@
         <v>0.35</v>
       </c>
       <c r="P17" t="b">
-        <f>OR(ISNUMBER(SEARCH("auto",$L17)),ISNUMBER(SEARCH("自动",$L17)))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -3023,7 +3023,7 @@
         <v>0.35</v>
       </c>
       <c r="P18" t="b">
-        <f>OR(ISNUMBER(SEARCH("auto",$L18)),ISNUMBER(SEARCH("自动",$L18)))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -3074,7 +3074,7 @@
         <v>0.35</v>
       </c>
       <c r="P19" t="b">
-        <f>OR(ISNUMBER(SEARCH("auto",$L19)),ISNUMBER(SEARCH("自动",$L19)))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -3125,7 +3125,7 @@
         <v>0.35</v>
       </c>
       <c r="P20" t="b">
-        <f>OR(ISNUMBER(SEARCH("auto",$L20)),ISNUMBER(SEARCH("自动",$L20)))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -3176,7 +3176,7 @@
         <v>0.35</v>
       </c>
       <c r="P21" t="b">
-        <f>OR(ISNUMBER(SEARCH("auto",$L21)),ISNUMBER(SEARCH("自动",$L21)))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -3227,7 +3227,7 @@
         <v>0.35</v>
       </c>
       <c r="P22" t="b">
-        <f>OR(ISNUMBER(SEARCH("auto",$L22)),ISNUMBER(SEARCH("自动",$L22)))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -3278,7 +3278,7 @@
         <v>0.35</v>
       </c>
       <c r="P23" t="b">
-        <f>OR(ISNUMBER(SEARCH("auto",$L23)),ISNUMBER(SEARCH("自动",$L23)))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -3329,7 +3329,7 @@
         <v>0.35</v>
       </c>
       <c r="P24" t="b">
-        <f>OR(ISNUMBER(SEARCH("auto",$L24)),ISNUMBER(SEARCH("自动",$L24)))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -3380,7 +3380,7 @@
         <v>0.35</v>
       </c>
       <c r="P25" t="b">
-        <f>OR(ISNUMBER(SEARCH("auto",$L25)),ISNUMBER(SEARCH("自动",$L25)))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -3431,7 +3431,7 @@
         <v>0.35</v>
       </c>
       <c r="P26" t="b">
-        <f>OR(ISNUMBER(SEARCH("auto",$L26)),ISNUMBER(SEARCH("自动",$L26)))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -3482,7 +3482,7 @@
         <v>0.35</v>
       </c>
       <c r="P27" t="b">
-        <f>OR(ISNUMBER(SEARCH("auto",$L27)),ISNUMBER(SEARCH("自动",$L27)))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -3533,7 +3533,7 @@
         <v>0.35</v>
       </c>
       <c r="P28" t="b">
-        <f>OR(ISNUMBER(SEARCH("auto",$L28)),ISNUMBER(SEARCH("自动",$L28)))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -3584,7 +3584,7 @@
         <v>0.35</v>
       </c>
       <c r="P29" t="b">
-        <f>OR(ISNUMBER(SEARCH("auto",$L29)),ISNUMBER(SEARCH("自动",$L29)))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -3635,7 +3635,7 @@
         <v>0.35</v>
       </c>
       <c r="P30" t="b">
-        <f>OR(ISNUMBER(SEARCH("auto",$L30)),ISNUMBER(SEARCH("自动",$L30)))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -3686,7 +3686,7 @@
         <v>0.35</v>
       </c>
       <c r="P31" t="b">
-        <f>OR(ISNUMBER(SEARCH("auto",$L31)),ISNUMBER(SEARCH("自动",$L31)))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -3737,7 +3737,7 @@
         <v>0.35</v>
       </c>
       <c r="P32" t="b">
-        <f>OR(ISNUMBER(SEARCH("auto",$L32)),ISNUMBER(SEARCH("自动",$L32)))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -3788,7 +3788,7 @@
         <v>0.35</v>
       </c>
       <c r="P33" t="b">
-        <f>OR(ISNUMBER(SEARCH("auto",$L33)),ISNUMBER(SEARCH("自动",$L33)))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -3839,7 +3839,7 @@
         <v>0.35</v>
       </c>
       <c r="P34" t="b">
-        <f>OR(ISNUMBER(SEARCH("auto",$L34)),ISNUMBER(SEARCH("自动",$L34)))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -3890,7 +3890,7 @@
         <v>0.35</v>
       </c>
       <c r="P35" t="b">
-        <f>OR(ISNUMBER(SEARCH("auto",$L35)),ISNUMBER(SEARCH("自动",$L35)))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -3941,7 +3941,7 @@
         <v>0.35</v>
       </c>
       <c r="P36" t="b">
-        <f>OR(ISNUMBER(SEARCH("auto",$L36)),ISNUMBER(SEARCH("自动",$L36)))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -3992,7 +3992,7 @@
         <v>0.35</v>
       </c>
       <c r="P37" t="b">
-        <f>OR(ISNUMBER(SEARCH("auto",$L37)),ISNUMBER(SEARCH("自动",$L37)))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -4043,7 +4043,7 @@
         <v>0.35</v>
       </c>
       <c r="P38" t="b">
-        <f>OR(ISNUMBER(SEARCH("auto",$L38)),ISNUMBER(SEARCH("自动",$L38)))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -4094,7 +4094,7 @@
         <v>0.35</v>
       </c>
       <c r="P39" t="b">
-        <f>OR(ISNUMBER(SEARCH("auto",$L39)),ISNUMBER(SEARCH("自动",$L39)))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -4145,7 +4145,7 @@
         <v>0.35</v>
       </c>
       <c r="P40" t="b">
-        <f>OR(ISNUMBER(SEARCH("auto",$L40)),ISNUMBER(SEARCH("自动",$L40)))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -4196,7 +4196,7 @@
         <v>0.35</v>
       </c>
       <c r="P41" t="b">
-        <f>OR(ISNUMBER(SEARCH("auto",$L41)),ISNUMBER(SEARCH("自动",$L41)))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -4247,7 +4247,7 @@
         <v>0.35</v>
       </c>
       <c r="P42" t="b">
-        <f>OR(ISNUMBER(SEARCH("auto",$L42)),ISNUMBER(SEARCH("自动",$L42)))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -4298,7 +4298,7 @@
         <v>0.35</v>
       </c>
       <c r="P43" t="b">
-        <f>OR(ISNUMBER(SEARCH("auto",$L43)),ISNUMBER(SEARCH("自动",$L43)))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -4349,7 +4349,7 @@
         <v>0.35</v>
       </c>
       <c r="P44" t="b">
-        <f>OR(ISNUMBER(SEARCH("auto",$L44)),ISNUMBER(SEARCH("自动",$L44)))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -4400,7 +4400,7 @@
         <v>0.35</v>
       </c>
       <c r="P45" t="b">
-        <f>OR(ISNUMBER(SEARCH("auto",$L45)),ISNUMBER(SEARCH("自动",$L45)))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -4451,7 +4451,7 @@
         <v>0.35</v>
       </c>
       <c r="P46" t="b">
-        <f>OR(ISNUMBER(SEARCH("auto",$L46)),ISNUMBER(SEARCH("自动",$L46)))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -4502,7 +4502,7 @@
         <v>0.35</v>
       </c>
       <c r="P47" t="b">
-        <f>OR(ISNUMBER(SEARCH("auto",$L47)),ISNUMBER(SEARCH("自动",$L47)))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -4553,7 +4553,7 @@
         <v>0.35</v>
       </c>
       <c r="P48" t="b">
-        <f>OR(ISNUMBER(SEARCH("auto",$L48)),ISNUMBER(SEARCH("自动",$L48)))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -4604,7 +4604,7 @@
         <v>0.35</v>
       </c>
       <c r="P49" t="b">
-        <f>OR(ISNUMBER(SEARCH("auto",$L49)),ISNUMBER(SEARCH("自动",$L49)))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -5012,7 +5012,7 @@
         <v>0.35</v>
       </c>
       <c r="P57" t="b">
-        <f t="shared" ref="P57:P85" si="2">OR(ISNUMBER(SEARCH("auto",$L57)),ISNUMBER(SEARCH("自动",$L57)))</f>
+        <f t="shared" ref="P57:P102" si="2">OR(ISNUMBER(SEARCH("auto",$L57)),ISNUMBER(SEARCH("自动",$L57)))</f>
         <v>1</v>
       </c>
     </row>
@@ -6491,7 +6491,7 @@
         <v>0.35</v>
       </c>
       <c r="P86" t="b">
-        <f>OR(ISNUMBER(SEARCH("auto",$L86)),ISNUMBER(SEARCH("自动",$L86)))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -6542,7 +6542,7 @@
         <v>0.35</v>
       </c>
       <c r="P87" t="b">
-        <f>OR(ISNUMBER(SEARCH("auto",$L87)),ISNUMBER(SEARCH("自动",$L87)))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -6593,7 +6593,7 @@
         <v>0.35</v>
       </c>
       <c r="P88" t="b">
-        <f>OR(ISNUMBER(SEARCH("auto",$L88)),ISNUMBER(SEARCH("自动",$L88)))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -6644,7 +6644,7 @@
         <v>0.35</v>
       </c>
       <c r="P89" t="b">
-        <f>OR(ISNUMBER(SEARCH("auto",$L89)),ISNUMBER(SEARCH("自动",$L89)))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -6695,7 +6695,7 @@
         <v>0.35</v>
       </c>
       <c r="P90" t="b">
-        <f>OR(ISNUMBER(SEARCH("auto",$L90)),ISNUMBER(SEARCH("自动",$L90)))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -6746,7 +6746,7 @@
         <v>0.35</v>
       </c>
       <c r="P91" t="b">
-        <f>OR(ISNUMBER(SEARCH("auto",$L91)),ISNUMBER(SEARCH("自动",$L91)))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -6797,7 +6797,7 @@
         <v>0.35</v>
       </c>
       <c r="P92" t="b">
-        <f>OR(ISNUMBER(SEARCH("auto",$L92)),ISNUMBER(SEARCH("自动",$L92)))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -6848,7 +6848,7 @@
         <v>0.35</v>
       </c>
       <c r="P93" t="b">
-        <f>OR(ISNUMBER(SEARCH("auto",$L93)),ISNUMBER(SEARCH("自动",$L93)))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -6899,7 +6899,7 @@
         <v>0.35</v>
       </c>
       <c r="P94" t="b">
-        <f>OR(ISNUMBER(SEARCH("auto",$L94)),ISNUMBER(SEARCH("自动",$L94)))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -6950,7 +6950,7 @@
         <v>0.35</v>
       </c>
       <c r="P95" t="b">
-        <f>OR(ISNUMBER(SEARCH("auto",$L95)),ISNUMBER(SEARCH("自动",$L95)))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -7001,7 +7001,7 @@
         <v>0.35</v>
       </c>
       <c r="P96" t="b">
-        <f>OR(ISNUMBER(SEARCH("auto",$L96)),ISNUMBER(SEARCH("自动",$L96)))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -7052,7 +7052,7 @@
         <v>0.35</v>
       </c>
       <c r="P97" t="b">
-        <f>OR(ISNUMBER(SEARCH("auto",$L97)),ISNUMBER(SEARCH("自动",$L97)))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -7103,7 +7103,7 @@
         <v>0.35</v>
       </c>
       <c r="P98" t="b">
-        <f>OR(ISNUMBER(SEARCH("auto",$L98)),ISNUMBER(SEARCH("自动",$L98)))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -7154,7 +7154,7 @@
         <v>0.35</v>
       </c>
       <c r="P99" t="b">
-        <f>OR(ISNUMBER(SEARCH("auto",$L99)),ISNUMBER(SEARCH("自动",$L99)))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -7205,7 +7205,7 @@
         <v>0.35</v>
       </c>
       <c r="P100" t="b">
-        <f>OR(ISNUMBER(SEARCH("auto",$L100)),ISNUMBER(SEARCH("自动",$L100)))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -7256,7 +7256,7 @@
         <v>0.35</v>
       </c>
       <c r="P101" t="b">
-        <f>OR(ISNUMBER(SEARCH("auto",$L101)),ISNUMBER(SEARCH("自动",$L101)))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -7307,7 +7307,7 @@
         <v>0.35</v>
       </c>
       <c r="P102" t="b">
-        <f>OR(ISNUMBER(SEARCH("auto",$L102)),ISNUMBER(SEARCH("自动",$L102)))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -8480,7 +8480,7 @@
         <v>0.35</v>
       </c>
       <c r="P125" t="b">
-        <f t="shared" ref="P125:P152" si="4">OR(ISNUMBER(SEARCH("auto",$L125)),ISNUMBER(SEARCH("自动",$L125)))</f>
+        <f t="shared" ref="P125:P176" si="4">OR(ISNUMBER(SEARCH("auto",$L125)),ISNUMBER(SEARCH("自动",$L125)))</f>
         <v>1</v>
       </c>
     </row>
@@ -9908,7 +9908,7 @@
         <v>0.35</v>
       </c>
       <c r="P153" t="b">
-        <f>OR(ISNUMBER(SEARCH("auto",$L153)),ISNUMBER(SEARCH("自动",$L153)))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -9959,7 +9959,7 @@
         <v>0.35</v>
       </c>
       <c r="P154" t="b">
-        <f>OR(ISNUMBER(SEARCH("auto",$L154)),ISNUMBER(SEARCH("自动",$L154)))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -10010,7 +10010,7 @@
         <v>0.35</v>
       </c>
       <c r="P155" t="b">
-        <f>OR(ISNUMBER(SEARCH("auto",$L155)),ISNUMBER(SEARCH("自动",$L155)))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -10061,7 +10061,7 @@
         <v>0.35</v>
       </c>
       <c r="P156" t="b">
-        <f>OR(ISNUMBER(SEARCH("auto",$L156)),ISNUMBER(SEARCH("自动",$L156)))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -10112,7 +10112,7 @@
         <v>0.35</v>
       </c>
       <c r="P157" t="b">
-        <f>OR(ISNUMBER(SEARCH("auto",$L157)),ISNUMBER(SEARCH("自动",$L157)))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -10163,7 +10163,7 @@
         <v>0.35</v>
       </c>
       <c r="P158" t="b">
-        <f>OR(ISNUMBER(SEARCH("auto",$L158)),ISNUMBER(SEARCH("自动",$L158)))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -10214,7 +10214,7 @@
         <v>0.35</v>
       </c>
       <c r="P159" t="b">
-        <f>OR(ISNUMBER(SEARCH("auto",$L159)),ISNUMBER(SEARCH("自动",$L159)))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -10265,7 +10265,7 @@
         <v>0.35</v>
       </c>
       <c r="P160" t="b">
-        <f>OR(ISNUMBER(SEARCH("auto",$L160)),ISNUMBER(SEARCH("自动",$L160)))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -10316,7 +10316,7 @@
         <v>0.35</v>
       </c>
       <c r="P161" t="b">
-        <f>OR(ISNUMBER(SEARCH("auto",$L161)),ISNUMBER(SEARCH("自动",$L161)))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -10367,7 +10367,7 @@
         <v>0.35</v>
       </c>
       <c r="P162" t="b">
-        <f>OR(ISNUMBER(SEARCH("auto",$L162)),ISNUMBER(SEARCH("自动",$L162)))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -10418,7 +10418,7 @@
         <v>0.35</v>
       </c>
       <c r="P163" t="b">
-        <f>OR(ISNUMBER(SEARCH("auto",$L163)),ISNUMBER(SEARCH("自动",$L163)))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -10469,7 +10469,7 @@
         <v>0.35</v>
       </c>
       <c r="P164" t="b">
-        <f>OR(ISNUMBER(SEARCH("auto",$L164)),ISNUMBER(SEARCH("自动",$L164)))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -10520,7 +10520,7 @@
         <v>0.35</v>
       </c>
       <c r="P165" t="b">
-        <f>OR(ISNUMBER(SEARCH("auto",$L165)),ISNUMBER(SEARCH("自动",$L165)))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -10571,7 +10571,7 @@
         <v>0.35</v>
       </c>
       <c r="P166" t="b">
-        <f>OR(ISNUMBER(SEARCH("auto",$L166)),ISNUMBER(SEARCH("自动",$L166)))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -10622,7 +10622,7 @@
         <v>0.35</v>
       </c>
       <c r="P167" t="b">
-        <f>OR(ISNUMBER(SEARCH("auto",$L167)),ISNUMBER(SEARCH("自动",$L167)))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -10673,7 +10673,7 @@
         <v>0.35</v>
       </c>
       <c r="P168" t="b">
-        <f>OR(ISNUMBER(SEARCH("auto",$L168)),ISNUMBER(SEARCH("自动",$L168)))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -10724,7 +10724,7 @@
         <v>0.35</v>
       </c>
       <c r="P169" t="b">
-        <f>OR(ISNUMBER(SEARCH("auto",$L169)),ISNUMBER(SEARCH("自动",$L169)))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -10775,7 +10775,7 @@
         <v>0.35</v>
       </c>
       <c r="P170" t="b">
-        <f>OR(ISNUMBER(SEARCH("auto",$L170)),ISNUMBER(SEARCH("自动",$L170)))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -10826,7 +10826,7 @@
         <v>0.35</v>
       </c>
       <c r="P171" t="b">
-        <f>OR(ISNUMBER(SEARCH("auto",$L171)),ISNUMBER(SEARCH("自动",$L171)))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -10877,7 +10877,7 @@
         <v>0.35</v>
       </c>
       <c r="P172" t="b">
-        <f>OR(ISNUMBER(SEARCH("auto",$L172)),ISNUMBER(SEARCH("自动",$L172)))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -10928,7 +10928,7 @@
         <v>0.35</v>
       </c>
       <c r="P173" t="b">
-        <f>OR(ISNUMBER(SEARCH("auto",$L173)),ISNUMBER(SEARCH("自动",$L173)))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -10979,7 +10979,7 @@
         <v>0.35</v>
       </c>
       <c r="P174" t="b">
-        <f>OR(ISNUMBER(SEARCH("auto",$L174)),ISNUMBER(SEARCH("自动",$L174)))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -11030,7 +11030,7 @@
         <v>0.35</v>
       </c>
       <c r="P175" t="b">
-        <f>OR(ISNUMBER(SEARCH("auto",$L175)),ISNUMBER(SEARCH("自动",$L175)))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -11081,7 +11081,7 @@
         <v>0.35</v>
       </c>
       <c r="P176" t="b">
-        <f>OR(ISNUMBER(SEARCH("auto",$L176)),ISNUMBER(SEARCH("自动",$L176)))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -11132,7 +11132,7 @@
         <v>0.35</v>
       </c>
       <c r="P177" t="b">
-        <f t="shared" ref="P177:P193" si="5">OR(ISNUMBER(SEARCH("auto",$L177)),ISNUMBER(SEARCH("自动",$L177)))</f>
+        <f t="shared" ref="P177:P215" si="5">OR(ISNUMBER(SEARCH("auto",$L177)),ISNUMBER(SEARCH("自动",$L177)))</f>
         <v>1</v>
       </c>
     </row>
@@ -11999,7 +11999,7 @@
         <v>0.35</v>
       </c>
       <c r="P194" t="b">
-        <f>OR(ISNUMBER(SEARCH("auto",$L194)),ISNUMBER(SEARCH("自动",$L194)))</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -12050,7 +12050,7 @@
         <v>0.35</v>
       </c>
       <c r="P195" t="b">
-        <f>OR(ISNUMBER(SEARCH("auto",$L195)),ISNUMBER(SEARCH("自动",$L195)))</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -12101,7 +12101,7 @@
         <v>0.35</v>
       </c>
       <c r="P196" t="b">
-        <f>OR(ISNUMBER(SEARCH("auto",$L196)),ISNUMBER(SEARCH("自动",$L196)))</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -12152,7 +12152,7 @@
         <v>0.35</v>
       </c>
       <c r="P197" t="b">
-        <f>OR(ISNUMBER(SEARCH("auto",$L197)),ISNUMBER(SEARCH("自动",$L197)))</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -12203,7 +12203,7 @@
         <v>0.35</v>
       </c>
       <c r="P198" t="b">
-        <f>OR(ISNUMBER(SEARCH("auto",$L198)),ISNUMBER(SEARCH("自动",$L198)))</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -12254,7 +12254,7 @@
         <v>0.35</v>
       </c>
       <c r="P199" t="b">
-        <f>OR(ISNUMBER(SEARCH("auto",$L199)),ISNUMBER(SEARCH("自动",$L199)))</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -12305,7 +12305,7 @@
         <v>0.35</v>
       </c>
       <c r="P200" t="b">
-        <f>OR(ISNUMBER(SEARCH("auto",$L200)),ISNUMBER(SEARCH("自动",$L200)))</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -12356,7 +12356,7 @@
         <v>0.35</v>
       </c>
       <c r="P201" t="b">
-        <f>OR(ISNUMBER(SEARCH("auto",$L201)),ISNUMBER(SEARCH("自动",$L201)))</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -12407,7 +12407,7 @@
         <v>0.35</v>
       </c>
       <c r="P202" t="b">
-        <f>OR(ISNUMBER(SEARCH("auto",$L202)),ISNUMBER(SEARCH("自动",$L202)))</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -12458,7 +12458,7 @@
         <v>0.35</v>
       </c>
       <c r="P203" t="b">
-        <f>OR(ISNUMBER(SEARCH("auto",$L203)),ISNUMBER(SEARCH("自动",$L203)))</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -12509,7 +12509,7 @@
         <v>0.35</v>
       </c>
       <c r="P204" t="b">
-        <f>OR(ISNUMBER(SEARCH("auto",$L204)),ISNUMBER(SEARCH("自动",$L204)))</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -12560,7 +12560,7 @@
         <v>0.35</v>
       </c>
       <c r="P205" t="b">
-        <f>OR(ISNUMBER(SEARCH("auto",$L205)),ISNUMBER(SEARCH("自动",$L205)))</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -12611,7 +12611,7 @@
         <v>0.35</v>
       </c>
       <c r="P206" t="b">
-        <f>OR(ISNUMBER(SEARCH("auto",$L206)),ISNUMBER(SEARCH("自动",$L206)))</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -12662,7 +12662,7 @@
         <v>0.35</v>
       </c>
       <c r="P207" t="b">
-        <f>OR(ISNUMBER(SEARCH("auto",$L207)),ISNUMBER(SEARCH("自动",$L207)))</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -12713,7 +12713,7 @@
         <v>0.35</v>
       </c>
       <c r="P208" t="b">
-        <f>OR(ISNUMBER(SEARCH("auto",$L208)),ISNUMBER(SEARCH("自动",$L208)))</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -12764,7 +12764,7 @@
         <v>0.35</v>
       </c>
       <c r="P209" t="b">
-        <f>OR(ISNUMBER(SEARCH("auto",$L209)),ISNUMBER(SEARCH("自动",$L209)))</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -12815,7 +12815,7 @@
         <v>0.35</v>
       </c>
       <c r="P210" t="b">
-        <f>OR(ISNUMBER(SEARCH("auto",$L210)),ISNUMBER(SEARCH("自动",$L210)))</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -12866,7 +12866,7 @@
         <v>0.35</v>
       </c>
       <c r="P211" t="b">
-        <f>OR(ISNUMBER(SEARCH("auto",$L211)),ISNUMBER(SEARCH("自动",$L211)))</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -12917,7 +12917,7 @@
         <v>0.35</v>
       </c>
       <c r="P212" t="b">
-        <f>OR(ISNUMBER(SEARCH("auto",$L212)),ISNUMBER(SEARCH("自动",$L212)))</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -12968,7 +12968,7 @@
         <v>0.35</v>
       </c>
       <c r="P213" t="b">
-        <f>OR(ISNUMBER(SEARCH("auto",$L213)),ISNUMBER(SEARCH("自动",$L213)))</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -13019,7 +13019,7 @@
         <v>0.35</v>
       </c>
       <c r="P214" t="b">
-        <f>OR(ISNUMBER(SEARCH("auto",$L214)),ISNUMBER(SEARCH("自动",$L214)))</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -13070,7 +13070,7 @@
         <v>0.35</v>
       </c>
       <c r="P215" t="b">
-        <f>OR(ISNUMBER(SEARCH("auto",$L215)),ISNUMBER(SEARCH("自动",$L215)))</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -14549,7 +14549,7 @@
         <v>0.35</v>
       </c>
       <c r="P244" t="b">
-        <f t="shared" ref="P244:P267" si="7">OR(ISNUMBER(SEARCH("auto",$L244)),ISNUMBER(SEARCH("自动",$L244)))</f>
+        <f t="shared" ref="P244:P284" si="7">OR(ISNUMBER(SEARCH("auto",$L244)),ISNUMBER(SEARCH("自动",$L244)))</f>
         <v>1</v>
       </c>
     </row>
@@ -15773,7 +15773,7 @@
         <v>0.35</v>
       </c>
       <c r="P268" t="b">
-        <f>OR(ISNUMBER(SEARCH("auto",$L268)),ISNUMBER(SEARCH("自动",$L268)))</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -15824,7 +15824,7 @@
         <v>0.35</v>
       </c>
       <c r="P269" t="b">
-        <f>OR(ISNUMBER(SEARCH("auto",$L269)),ISNUMBER(SEARCH("自动",$L269)))</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -15875,7 +15875,7 @@
         <v>0.35</v>
       </c>
       <c r="P270" t="b">
-        <f>OR(ISNUMBER(SEARCH("auto",$L270)),ISNUMBER(SEARCH("自动",$L270)))</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -15926,7 +15926,7 @@
         <v>0.35</v>
       </c>
       <c r="P271" t="b">
-        <f>OR(ISNUMBER(SEARCH("auto",$L271)),ISNUMBER(SEARCH("自动",$L271)))</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -15977,7 +15977,7 @@
         <v>0.35</v>
       </c>
       <c r="P272" t="b">
-        <f>OR(ISNUMBER(SEARCH("auto",$L272)),ISNUMBER(SEARCH("自动",$L272)))</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -16028,7 +16028,7 @@
         <v>0.35</v>
       </c>
       <c r="P273" t="b">
-        <f>OR(ISNUMBER(SEARCH("auto",$L273)),ISNUMBER(SEARCH("自动",$L273)))</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -16079,7 +16079,7 @@
         <v>0.35</v>
       </c>
       <c r="P274" t="b">
-        <f>OR(ISNUMBER(SEARCH("auto",$L274)),ISNUMBER(SEARCH("自动",$L274)))</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -16130,7 +16130,7 @@
         <v>0.35</v>
       </c>
       <c r="P275" t="b">
-        <f>OR(ISNUMBER(SEARCH("auto",$L275)),ISNUMBER(SEARCH("自动",$L275)))</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -16181,7 +16181,7 @@
         <v>0.35</v>
       </c>
       <c r="P276" t="b">
-        <f>OR(ISNUMBER(SEARCH("auto",$L276)),ISNUMBER(SEARCH("自动",$L276)))</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -16232,7 +16232,7 @@
         <v>0.35</v>
       </c>
       <c r="P277" t="b">
-        <f>OR(ISNUMBER(SEARCH("auto",$L277)),ISNUMBER(SEARCH("自动",$L277)))</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -16283,7 +16283,7 @@
         <v>0.35</v>
       </c>
       <c r="P278" t="b">
-        <f>OR(ISNUMBER(SEARCH("auto",$L278)),ISNUMBER(SEARCH("自动",$L278)))</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -16334,7 +16334,7 @@
         <v>0.35</v>
       </c>
       <c r="P279" t="b">
-        <f>OR(ISNUMBER(SEARCH("auto",$L279)),ISNUMBER(SEARCH("自动",$L279)))</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -16385,7 +16385,7 @@
         <v>0.35</v>
       </c>
       <c r="P280" t="b">
-        <f>OR(ISNUMBER(SEARCH("auto",$L280)),ISNUMBER(SEARCH("自动",$L280)))</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -16436,7 +16436,7 @@
         <v>0.35</v>
       </c>
       <c r="P281" t="b">
-        <f>OR(ISNUMBER(SEARCH("auto",$L281)),ISNUMBER(SEARCH("自动",$L281)))</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -16487,7 +16487,7 @@
         <v>0.35</v>
       </c>
       <c r="P282" t="b">
-        <f>OR(ISNUMBER(SEARCH("auto",$L282)),ISNUMBER(SEARCH("自动",$L282)))</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -16538,7 +16538,7 @@
         <v>0.35</v>
       </c>
       <c r="P283" t="b">
-        <f>OR(ISNUMBER(SEARCH("auto",$L283)),ISNUMBER(SEARCH("自动",$L283)))</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -16589,7 +16589,7 @@
         <v>0.35</v>
       </c>
       <c r="P284" t="b">
-        <f>OR(ISNUMBER(SEARCH("auto",$L284)),ISNUMBER(SEARCH("自动",$L284)))</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -16640,7 +16640,7 @@
         <v>0.35</v>
       </c>
       <c r="P285" t="b">
-        <f t="shared" ref="P285:P306" si="8">OR(ISNUMBER(SEARCH("auto",$L285)),ISNUMBER(SEARCH("自动",$L285)))</f>
+        <f t="shared" ref="P285:P334" si="8">OR(ISNUMBER(SEARCH("auto",$L285)),ISNUMBER(SEARCH("自动",$L285)))</f>
         <v>1</v>
       </c>
     </row>
@@ -17762,7 +17762,7 @@
         <v>0.35</v>
       </c>
       <c r="P307" t="b">
-        <f>OR(ISNUMBER(SEARCH("auto",$L307)),ISNUMBER(SEARCH("自动",$L307)))</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -17813,7 +17813,7 @@
         <v>0.35</v>
       </c>
       <c r="P308" t="b">
-        <f>OR(ISNUMBER(SEARCH("auto",$L308)),ISNUMBER(SEARCH("自动",$L308)))</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -17864,7 +17864,7 @@
         <v>0.35</v>
       </c>
       <c r="P309" t="b">
-        <f>OR(ISNUMBER(SEARCH("auto",$L309)),ISNUMBER(SEARCH("自动",$L309)))</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -17915,7 +17915,7 @@
         <v>0.35</v>
       </c>
       <c r="P310" t="b">
-        <f>OR(ISNUMBER(SEARCH("auto",$L310)),ISNUMBER(SEARCH("自动",$L310)))</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -17966,7 +17966,7 @@
         <v>0.35</v>
       </c>
       <c r="P311" t="b">
-        <f>OR(ISNUMBER(SEARCH("auto",$L311)),ISNUMBER(SEARCH("自动",$L311)))</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -18017,7 +18017,7 @@
         <v>0.35</v>
       </c>
       <c r="P312" t="b">
-        <f>OR(ISNUMBER(SEARCH("auto",$L312)),ISNUMBER(SEARCH("自动",$L312)))</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -18068,7 +18068,7 @@
         <v>0.35</v>
       </c>
       <c r="P313" t="b">
-        <f>OR(ISNUMBER(SEARCH("auto",$L313)),ISNUMBER(SEARCH("自动",$L313)))</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -18119,7 +18119,7 @@
         <v>0.35</v>
       </c>
       <c r="P314" t="b">
-        <f>OR(ISNUMBER(SEARCH("auto",$L314)),ISNUMBER(SEARCH("自动",$L314)))</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -18170,7 +18170,7 @@
         <v>0.35</v>
       </c>
       <c r="P315" t="b">
-        <f>OR(ISNUMBER(SEARCH("auto",$L315)),ISNUMBER(SEARCH("自动",$L315)))</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -18221,7 +18221,7 @@
         <v>0.35</v>
       </c>
       <c r="P316" t="b">
-        <f>OR(ISNUMBER(SEARCH("auto",$L316)),ISNUMBER(SEARCH("自动",$L316)))</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -18272,7 +18272,7 @@
         <v>0.35</v>
       </c>
       <c r="P317" t="b">
-        <f>OR(ISNUMBER(SEARCH("auto",$L317)),ISNUMBER(SEARCH("自动",$L317)))</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -18323,7 +18323,7 @@
         <v>0.35</v>
       </c>
       <c r="P318" t="b">
-        <f>OR(ISNUMBER(SEARCH("auto",$L318)),ISNUMBER(SEARCH("自动",$L318)))</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -18374,7 +18374,7 @@
         <v>0.35</v>
       </c>
       <c r="P319" t="b">
-        <f>OR(ISNUMBER(SEARCH("auto",$L319)),ISNUMBER(SEARCH("自动",$L319)))</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -18425,7 +18425,7 @@
         <v>0.35</v>
       </c>
       <c r="P320" t="b">
-        <f>OR(ISNUMBER(SEARCH("auto",$L320)),ISNUMBER(SEARCH("自动",$L320)))</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -18476,7 +18476,7 @@
         <v>0.35</v>
       </c>
       <c r="P321" t="b">
-        <f>OR(ISNUMBER(SEARCH("auto",$L321)),ISNUMBER(SEARCH("自动",$L321)))</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -18527,7 +18527,7 @@
         <v>0.35</v>
       </c>
       <c r="P322" t="b">
-        <f>OR(ISNUMBER(SEARCH("auto",$L322)),ISNUMBER(SEARCH("自动",$L322)))</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -18578,7 +18578,7 @@
         <v>0.35</v>
       </c>
       <c r="P323" t="b">
-        <f>OR(ISNUMBER(SEARCH("auto",$L323)),ISNUMBER(SEARCH("自动",$L323)))</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -18629,7 +18629,7 @@
         <v>0.35</v>
       </c>
       <c r="P324" t="b">
-        <f>OR(ISNUMBER(SEARCH("auto",$L324)),ISNUMBER(SEARCH("自动",$L324)))</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -18680,7 +18680,7 @@
         <v>0.35</v>
       </c>
       <c r="P325" t="b">
-        <f>OR(ISNUMBER(SEARCH("auto",$L325)),ISNUMBER(SEARCH("自动",$L325)))</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -18731,7 +18731,7 @@
         <v>0.35</v>
       </c>
       <c r="P326" t="b">
-        <f>OR(ISNUMBER(SEARCH("auto",$L326)),ISNUMBER(SEARCH("自动",$L326)))</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -18782,7 +18782,7 @@
         <v>0.35</v>
       </c>
       <c r="P327" t="b">
-        <f>OR(ISNUMBER(SEARCH("auto",$L327)),ISNUMBER(SEARCH("自动",$L327)))</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -18833,7 +18833,7 @@
         <v>0.35</v>
       </c>
       <c r="P328" t="b">
-        <f>OR(ISNUMBER(SEARCH("auto",$L328)),ISNUMBER(SEARCH("自动",$L328)))</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -18884,7 +18884,7 @@
         <v>0.35</v>
       </c>
       <c r="P329" t="b">
-        <f>OR(ISNUMBER(SEARCH("auto",$L329)),ISNUMBER(SEARCH("自动",$L329)))</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -18935,7 +18935,7 @@
         <v>0.35</v>
       </c>
       <c r="P330" t="b">
-        <f>OR(ISNUMBER(SEARCH("auto",$L330)),ISNUMBER(SEARCH("自动",$L330)))</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -18986,7 +18986,7 @@
         <v>0.35</v>
       </c>
       <c r="P331" t="b">
-        <f>OR(ISNUMBER(SEARCH("auto",$L331)),ISNUMBER(SEARCH("自动",$L331)))</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -19037,7 +19037,7 @@
         <v>0.35</v>
       </c>
       <c r="P332" t="b">
-        <f>OR(ISNUMBER(SEARCH("auto",$L332)),ISNUMBER(SEARCH("自动",$L332)))</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -19088,7 +19088,7 @@
         <v>0.35</v>
       </c>
       <c r="P333" t="b">
-        <f>OR(ISNUMBER(SEARCH("auto",$L333)),ISNUMBER(SEARCH("自动",$L333)))</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -19139,7 +19139,7 @@
         <v>0.35</v>
       </c>
       <c r="P334" t="b">
-        <f>OR(ISNUMBER(SEARCH("auto",$L334)),ISNUMBER(SEARCH("自动",$L334)))</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -23036,7 +23036,7 @@
         <v>0.35</v>
       </c>
       <c r="P421" t="b">
-        <f t="shared" ref="P421:P433" si="11">OR(ISNUMBER(SEARCH("auto",$L421)),ISNUMBER(SEARCH("自动",$L421)))</f>
+        <f t="shared" ref="P421:P441" si="11">OR(ISNUMBER(SEARCH("auto",$L421)),ISNUMBER(SEARCH("自动",$L421)))</f>
         <v>1</v>
       </c>
     </row>
@@ -23699,7 +23699,7 @@
         <v>0.35</v>
       </c>
       <c r="P434" t="b">
-        <f>OR(ISNUMBER(SEARCH("auto",$L434)),ISNUMBER(SEARCH("自动",$L434)))</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -23750,7 +23750,7 @@
         <v>0.35</v>
       </c>
       <c r="P435" t="b">
-        <f>OR(ISNUMBER(SEARCH("auto",$L435)),ISNUMBER(SEARCH("自动",$L435)))</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -23801,7 +23801,7 @@
         <v>0.35</v>
       </c>
       <c r="P436" t="b">
-        <f>OR(ISNUMBER(SEARCH("auto",$L436)),ISNUMBER(SEARCH("自动",$L436)))</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -23852,7 +23852,7 @@
         <v>0.35</v>
       </c>
       <c r="P437" t="b">
-        <f>OR(ISNUMBER(SEARCH("auto",$L437)),ISNUMBER(SEARCH("自动",$L437)))</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -23903,7 +23903,7 @@
         <v>0.35</v>
       </c>
       <c r="P438" t="b">
-        <f>OR(ISNUMBER(SEARCH("auto",$L438)),ISNUMBER(SEARCH("自动",$L438)))</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -23954,7 +23954,7 @@
         <v>0.35</v>
       </c>
       <c r="P439" t="b">
-        <f>OR(ISNUMBER(SEARCH("auto",$L439)),ISNUMBER(SEARCH("自动",$L439)))</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -24005,7 +24005,7 @@
         <v>0.35</v>
       </c>
       <c r="P440" t="b">
-        <f>OR(ISNUMBER(SEARCH("auto",$L440)),ISNUMBER(SEARCH("自动",$L440)))</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -24056,7 +24056,7 @@
         <v>0.35</v>
       </c>
       <c r="P441" t="b">
-        <f>OR(ISNUMBER(SEARCH("auto",$L441)),ISNUMBER(SEARCH("自动",$L441)))</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -24107,7 +24107,7 @@
         <v>0.35</v>
       </c>
       <c r="P442" t="b">
-        <f t="shared" ref="P442:P449" si="12">OR(ISNUMBER(SEARCH("auto",$L442)),ISNUMBER(SEARCH("自动",$L442)))</f>
+        <f t="shared" ref="P442:P457" si="12">OR(ISNUMBER(SEARCH("auto",$L442)),ISNUMBER(SEARCH("自动",$L442)))</f>
         <v>1</v>
       </c>
     </row>
@@ -24515,7 +24515,7 @@
         <v>0.35</v>
       </c>
       <c r="P450" t="b">
-        <f>OR(ISNUMBER(SEARCH("auto",$L450)),ISNUMBER(SEARCH("自动",$L450)))</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
@@ -24566,7 +24566,7 @@
         <v>0.35</v>
       </c>
       <c r="P451" t="b">
-        <f>OR(ISNUMBER(SEARCH("auto",$L451)),ISNUMBER(SEARCH("自动",$L451)))</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
@@ -24617,7 +24617,7 @@
         <v>0.35</v>
       </c>
       <c r="P452" t="b">
-        <f>OR(ISNUMBER(SEARCH("auto",$L452)),ISNUMBER(SEARCH("自动",$L452)))</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
@@ -24668,7 +24668,7 @@
         <v>0.35</v>
       </c>
       <c r="P453" t="b">
-        <f>OR(ISNUMBER(SEARCH("auto",$L453)),ISNUMBER(SEARCH("自动",$L453)))</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
@@ -24719,7 +24719,7 @@
         <v>0.35</v>
       </c>
       <c r="P454" t="b">
-        <f>OR(ISNUMBER(SEARCH("auto",$L454)),ISNUMBER(SEARCH("自动",$L454)))</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
@@ -24770,7 +24770,7 @@
         <v>0.35</v>
       </c>
       <c r="P455" t="b">
-        <f>OR(ISNUMBER(SEARCH("auto",$L455)),ISNUMBER(SEARCH("自动",$L455)))</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
@@ -24821,7 +24821,7 @@
         <v>0.35</v>
       </c>
       <c r="P456" t="b">
-        <f>OR(ISNUMBER(SEARCH("auto",$L456)),ISNUMBER(SEARCH("自动",$L456)))</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
@@ -24872,7 +24872,7 @@
         <v>0.35</v>
       </c>
       <c r="P457" t="b">
-        <f>OR(ISNUMBER(SEARCH("auto",$L457)),ISNUMBER(SEARCH("自动",$L457)))</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
